--- a/dataset-inventory/ota-2/ota-2_authors_dataset_cleaned.xlsx
+++ b/dataset-inventory/ota-2/ota-2_authors_dataset_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\dataset-inventory\ota-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AC1CD-0EEB-465A-9781-6CC60A610FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59CC6C-0B13-4434-83FF-14E73682E200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11B58651-F3F6-4F9B-8EB2-4B946C5AC4FB}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7679F7B-C4DB-4444-BF8D-705BA2C46780}">
   <dimension ref="A1:A2762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1220" workbookViewId="0">
-      <selection activeCell="H1233" sqref="H1233"/>
+    <sheetView tabSelected="1" topLeftCell="A1515" workbookViewId="0">
+      <selection activeCell="J1529" sqref="J1529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
